--- a/实验8：工作量估计与统计分析/实验7 配置管理工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验7 配置管理工作统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="配置管理工作量统计" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>配置管理工作量统计表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,22 @@
   </si>
   <si>
     <t>张3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耗时(h)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0.0.2003031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化文档内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常佳辉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +252,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -257,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -271,11 +290,36 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -482,26 +526,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A2:D13"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="姓名" dataDxfId="11"/>
-    <tableColumn id="2" name="完成文档" dataDxfId="10"/>
-    <tableColumn id="3" name="字数" dataDxfId="9"/>
-    <tableColumn id="4" name="耗时(h)" dataDxfId="8"/>
+    <tableColumn id="1" name="姓名" dataDxfId="10"/>
+    <tableColumn id="2" name="完成文档" dataDxfId="9"/>
+    <tableColumn id="3" name="字数" dataDxfId="8"/>
+    <tableColumn id="4" name="耗时(h)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:D23" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A2:D23"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="修改日期" dataDxfId="5"/>
-    <tableColumn id="2" name="版本" dataDxfId="4"/>
-    <tableColumn id="3" name="修改内容" dataDxfId="3"/>
-    <tableColumn id="4" name="修改人" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A2:E23"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="修改日期" dataDxfId="4"/>
+    <tableColumn id="2" name="版本" dataDxfId="3"/>
+    <tableColumn id="3" name="修改内容" dataDxfId="2"/>
+    <tableColumn id="4" name="修改人" dataDxfId="1"/>
+    <tableColumn id="5" name="耗时(h)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -785,12 +830,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -807,16 +852,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>700</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -836,29 +881,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,20 +916,100 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>43920</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>43921</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -892,9 +1017,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/实验8：工作量估计与统计分析/实验7 配置管理工作统计.xlsx
+++ b/实验8：工作量估计与统计分析/实验7 配置管理工作统计.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="配置管理工作量统计" sheetId="1" r:id="rId1"/>
-    <sheet name="配置管理总结修改记录" sheetId="2" r:id="rId2"/>
+    <sheet name="配置管理总结修改记录" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,42 +19,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-最终用于配置管理总结的内容字数。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -118,35 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>配置管理工作量统计表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耗时(h)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置管理总结V1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>配置管理总结修改记录表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,116 +225,20 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -526,19 +365,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A2:D13" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A2:D13"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="姓名" dataDxfId="10"/>
-    <tableColumn id="2" name="完成文档" dataDxfId="9"/>
-    <tableColumn id="3" name="字数" dataDxfId="8"/>
-    <tableColumn id="4" name="耗时(h)" dataDxfId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A2:E23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E23"/>
   <tableColumns count="5">
@@ -815,76 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>700</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -896,28 +656,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -925,91 +685,91 @@
         <v>43920</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>43921</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="5"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" s="5"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="5"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="5"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="5"/>
+      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
